--- a/experimental_results/ordering_NW_finished.xlsx
+++ b/experimental_results/ordering_NW_finished.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF640C22-3558-4569-BF71-3FACC2CD3C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F568E0-4F66-4677-90C5-B13F574907F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9304CC2E-D6E2-4A2B-A955-426B40F1FB42}"/>
   </bookViews>
@@ -532,6 +532,14 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,14 +547,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -862,11 +862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE01C0-87DF-4CA1-B833-0C5585900ECA}">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S28" sqref="S28"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,33 +879,34 @@
     <col min="9" max="13" width="11.44140625" style="1"/>
     <col min="14" max="16" width="22.6640625" style="1" customWidth="1"/>
     <col min="17" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="11.44140625" style="6"/>
-    <col min="21" max="21" width="11.44140625" style="4"/>
-    <col min="22" max="16384" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="11.44140625" style="3"/>
+    <col min="22" max="23" width="11.44140625" style="1"/>
+    <col min="24" max="24" width="11.44140625" style="12"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="N1" s="3" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,17 +961,17 @@
       <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>139</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,61 +987,61 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>42</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>4</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3">
         <v>4</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3">
         <v>16</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3">
         <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="3">
         <f>P3/H3</f>
         <v>0.38095238095238093</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="3">
         <f>Q3/I3</f>
         <v>0.2</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1053,61 +1054,61 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>35</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>6</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>5</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <v>20</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4">
         <v>11</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="3">
         <f t="shared" ref="T4:T36" si="0">P4/H4</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <f t="shared" ref="U4:U36" si="1">Q4/I4</f>
         <v>0.5</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1120,61 +1121,61 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>48</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>8</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>6</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>6</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>36</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>18</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="3">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,61 +1188,65 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>9</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>13</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>117</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>56</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>14</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <v>9</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <v>90</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6">
         <v>8</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6">
         <v>51</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="3">
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="3">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X6" s="1">
+        <f>J6/E6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1254,61 +1259,65 @@
       <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>16</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>224</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>14</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>110</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>13</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>21</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>13</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>13</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <v>169</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7">
         <v>13</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7">
         <v>99</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="3">
         <f t="shared" si="0"/>
         <v>0.7544642857142857</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="3">
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X7" s="1">
+        <f>J7/E7</f>
+        <v>5.2380952380952381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1321,61 +1330,65 @@
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>19</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>228</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>22</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>107</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>14</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>11</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>14</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <v>154</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8">
         <v>154</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="3">
         <f t="shared" si="0"/>
         <v>0.67543859649122806</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="3">
         <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X8" s="12">
+        <f t="shared" ref="X7:X36" si="2">J8/E8</f>
+        <v>5.0952380952380949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1391,61 +1404,65 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>24</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>216</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>22</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>132</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>17</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9">
         <v>21</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <v>12</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>16</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <v>192</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9">
         <v>19</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9">
         <v>112</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="3">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="3">
         <f t="shared" si="1"/>
         <v>0.86363636363636365</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X9" s="12">
+        <f t="shared" si="2"/>
+        <v>6.2857142857142856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1458,61 +1475,65 @@
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>17</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>221</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>15</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>117</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>12</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>11</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>12</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <v>132</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10">
         <v>12</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10">
         <v>95</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="3">
         <f t="shared" si="0"/>
         <v>0.59728506787330315</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="3">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X10" s="12">
+        <f t="shared" si="2"/>
+        <v>6.1578947368421053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1525,61 +1546,65 @@
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>18</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>216</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>14</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>93</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>15</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>21</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>11</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>15</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>165</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>12</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11">
         <v>79</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="3">
         <f t="shared" si="0"/>
         <v>0.76388888888888884</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="3">
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X11" s="12">
+        <f t="shared" si="2"/>
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1592,61 +1617,65 @@
       <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>13</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>32</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>416</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>28</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>181</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>24</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>36</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <v>13</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>29</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>377</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>27</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12">
         <v>178</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="3">
         <f t="shared" si="0"/>
         <v>0.90625</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="3">
         <f t="shared" si="1"/>
         <v>0.9642857142857143</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X12" s="12">
+        <f t="shared" si="2"/>
+        <v>5.0277777777777777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1659,61 +1688,65 @@
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>23</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>53</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>1219</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>62</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>418</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>38</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>59</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13">
         <v>22</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>51</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <v>1122</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>53</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13">
         <v>413</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="3">
         <f t="shared" si="0"/>
         <v>0.92042657916324855</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="3">
         <f t="shared" si="1"/>
         <v>0.85483870967741937</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X13" s="12">
+        <f t="shared" si="2"/>
+        <v>7.0847457627118642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1726,61 +1759,65 @@
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>22</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>48</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
         <v>1056</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <v>68</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>475</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>38</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>56</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14">
         <v>42</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <v>840</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <v>54</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14">
         <v>438</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="3">
         <f t="shared" si="0"/>
         <v>0.79545454545454541</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="3">
         <f t="shared" si="1"/>
         <v>0.79411764705882348</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X14" s="12">
+        <f t="shared" si="2"/>
+        <v>8.4821428571428577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1793,61 +1830,65 @@
       <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>48</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>119</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>5712</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>164</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>1867</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>103</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>133</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15">
         <v>48</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15">
         <v>103</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <v>4944</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>72</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>2212</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="3">
         <f t="shared" si="0"/>
         <v>0.86554621848739499</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="3">
         <f t="shared" si="1"/>
         <v>0.43902439024390244</v>
       </c>
-      <c r="V15" s="12">
+      <c r="V15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X15" s="12">
+        <f t="shared" si="2"/>
+        <v>14.037593984962406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1863,61 +1904,65 @@
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>9</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>12</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>108</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>8</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>62</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>7</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16">
         <v>7</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16">
         <v>10</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16">
         <v>70</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>8</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>44</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="3">
         <f t="shared" si="0"/>
         <v>0.64814814814814814</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X16" s="12">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -1930,61 +1975,65 @@
       <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>187</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>432</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>80784</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>4273</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>34911</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17">
         <v>357</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>537</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17">
         <v>193</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17">
         <v>419</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <v>80867</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>4063</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>36732</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="3">
         <f t="shared" si="0"/>
         <v>1.00102743117449</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="3">
         <f t="shared" si="1"/>
         <v>0.95085420079569394</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X17" s="12">
+        <f t="shared" si="2"/>
+        <v>65.011173184357546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1997,62 +2046,66 @@
       <c r="E18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>359</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>841</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>301919</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>9422</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>98988</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="2">
         <v>2.0213800000000002</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18">
         <v>698</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18">
         <v>1089</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18">
         <v>328</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18">
         <v>734</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18">
         <v>240752</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18">
         <v>9172</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18">
         <v>95451</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="2">
         <v>2.0240100000000001</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="3">
         <f t="shared" si="0"/>
         <v>0.79740592675518929</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="3">
         <f t="shared" si="1"/>
         <v>0.97346635533856929</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="3">
         <f>S18/K18</f>
         <v>1.0013010913336433</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X18" s="12">
+        <f t="shared" si="2"/>
+        <v>90.898071625344357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2065,62 +2118,66 @@
       <c r="E19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>292</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <v>696</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19">
         <v>203232</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19">
         <v>7918</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19">
         <v>65197</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="2">
         <v>1.4051100000000001</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19">
         <v>552</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19">
         <v>845</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19">
         <v>267</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19">
         <v>645</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19">
         <v>172215</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19">
         <v>8166</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19">
         <v>65090</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="2">
         <v>1.9547399999999999</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="3">
         <f t="shared" si="0"/>
         <v>0.84738131790269244</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="3">
         <f t="shared" si="1"/>
         <v>1.0313210406668352</v>
       </c>
-      <c r="V19" s="6">
-        <f t="shared" ref="V19:V36" si="2">S19/K19</f>
+      <c r="V19" s="3">
+        <f t="shared" ref="V19:V36" si="3">S19/K19</f>
         <v>1.3911651045113904</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X19" s="12">
+        <f t="shared" si="2"/>
+        <v>77.156213017751483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2133,62 +2190,66 @@
       <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>431</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <v>1113</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>479703</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20">
         <v>6318</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
         <v>103721</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="2">
         <v>2.34314</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20">
         <v>834</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20">
         <v>1329</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20">
         <v>440</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>1110</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <v>444000</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20">
         <v>5912</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20">
         <v>104694</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="2">
         <v>3.4912700000000001</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="3">
         <f t="shared" si="0"/>
         <v>0.92557269810695364</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="3">
         <f>Q20/I20</f>
         <v>0.93573915796138019</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4899963297114129</v>
+      </c>
+      <c r="X20" s="12">
         <f t="shared" si="2"/>
-        <v>1.4899963297114129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>78.044394281414597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2201,62 +2262,66 @@
       <c r="E21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>365</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21">
         <v>819</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21">
         <v>298935</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21">
         <v>10300</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21">
         <v>101085</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="2">
         <v>1.9001600000000001</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21">
         <v>686</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21">
         <v>1092</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21">
         <v>342</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21">
         <v>763</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21">
         <v>260946</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21">
         <v>9319</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21">
         <v>99799</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="2">
         <v>1.9229499999999999</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
         <f t="shared" si="0"/>
         <v>0.87291886195995783</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="3">
         <f t="shared" si="1"/>
         <v>0.90475728155339807</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0119937268440551</v>
+      </c>
+      <c r="X21" s="12">
         <f t="shared" si="2"/>
-        <v>1.0119937268440551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>92.568681318681314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
@@ -2269,62 +2334,66 @@
       <c r="E22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>664</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22">
         <v>1580</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
         <v>1049120</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22">
         <v>29792</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
         <v>308518</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="2">
         <v>7.1929400000000001</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22">
         <v>1204</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22">
         <v>1827</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22">
         <v>604</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22">
         <v>1497</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22">
         <v>904188</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22">
         <v>25247</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22">
         <v>304793</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="2">
         <v>6.4236500000000003</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="3">
         <f t="shared" si="0"/>
         <v>0.86185374409028515</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="3">
         <f t="shared" si="1"/>
         <v>0.84744226638023634</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89304929555925672</v>
+      </c>
+      <c r="X22" s="12">
         <f t="shared" si="2"/>
-        <v>0.89304929555925672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>167.67282608695652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2337,62 +2406,66 @@
       <c r="E23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23">
         <v>840</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23">
         <v>2028</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23">
         <v>1703520</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23">
         <v>41794</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23">
         <v>433132</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="2">
         <v>9.7095599999999997</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23">
         <v>1738</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23">
         <v>2748</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23">
         <v>1949</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23">
         <v>820</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23">
         <v>1598180</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23">
         <v>39534</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23">
         <v>440620</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="2">
         <v>9.3915799999999994</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="3">
         <f t="shared" si="0"/>
         <v>0.93816333239410166</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="3">
         <f t="shared" si="1"/>
         <v>0.94592525242857828</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9672508331994446</v>
+      </c>
+      <c r="X23" s="12">
         <f t="shared" si="2"/>
-        <v>0.9672508331994446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>157.61717612809315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2405,62 +2478,66 @@
       <c r="E24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>1616</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24">
         <v>3436</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24">
         <v>5552576</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24">
         <v>122373</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24">
         <v>1551411</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="2">
         <v>34.503100000000003</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24">
         <v>2905</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24">
         <v>4615</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24">
         <v>1509</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24">
         <v>3267</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24">
         <v>4929903</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24">
         <v>96594</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24">
         <v>1577735</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="2">
         <v>60.4846</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="3">
         <f t="shared" si="0"/>
         <v>0.88785871638677261</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="3">
         <f t="shared" si="1"/>
         <v>0.78934078595768675</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7530192939185174</v>
+      </c>
+      <c r="X24" s="12">
         <f t="shared" si="2"/>
-        <v>1.7530192939185174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>336.16706392199347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
@@ -2473,62 +2550,66 @@
       <c r="E25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>1361</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25">
         <v>5715</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25">
         <v>7778115</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25">
         <v>31535</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <v>629779</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="2">
         <v>24.7287</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25">
         <v>4626</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25">
         <v>6963</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25">
         <v>1330</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25">
         <v>5713</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25">
         <v>7598290</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25">
         <v>34994</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25">
         <v>705176</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="2">
         <v>25.856999999999999</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="3">
         <f t="shared" si="0"/>
         <v>0.97688064524630969</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="3">
         <f t="shared" si="1"/>
         <v>1.1096876486443634</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0456271457860704</v>
+      </c>
+      <c r="X25" s="12">
         <f t="shared" si="2"/>
-        <v>1.0456271457860704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>90.446502944133272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
@@ -2541,62 +2622,66 @@
       <c r="E26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>1710</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <v>4318</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
         <v>7491510</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26">
         <v>200597</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26">
         <v>2312386</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="2">
         <v>56.018900000000002</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26">
         <v>3679</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26">
         <v>5654</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26">
         <v>1599</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26">
         <v>4148</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <v>6632652</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26">
         <v>165626</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26">
         <v>2234848</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="2">
         <v>47.981499999999997</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="3">
         <f t="shared" si="0"/>
         <v>0.8853558227913999</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="3">
         <f t="shared" si="1"/>
         <v>0.825665388814389</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85652342334462106</v>
+      </c>
+      <c r="X26" s="12">
         <f t="shared" si="2"/>
-        <v>0.85652342334462106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>408.98231340643792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -2612,61 +2697,65 @@
       <c r="E27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>185</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27">
         <v>252</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27">
         <v>65305</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27">
         <v>2690</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27">
         <v>25240</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27">
         <v>306</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27">
         <v>498</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27">
         <v>161</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27">
         <v>344</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27">
         <v>55384</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27">
         <v>2497</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27">
         <v>23703</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="3">
         <f t="shared" si="0"/>
         <v>0.84808207641068833</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="3">
         <f t="shared" si="1"/>
         <v>0.92825278810408918</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X27" s="12">
+        <f t="shared" si="2"/>
+        <v>50.682730923694777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
@@ -2679,62 +2768,66 @@
       <c r="E28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>228</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>495</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28">
         <v>112860</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28">
         <v>5533</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28">
         <v>112860</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="2">
         <v>1.6697900000000001</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28">
         <v>437</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28">
         <v>693</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28">
         <v>222</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28">
         <v>480</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28">
         <v>106560</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28">
         <v>5319</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28">
         <v>47421</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="2">
         <v>1.0468</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="3">
         <f t="shared" si="0"/>
         <v>0.94417862838915467</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="3">
         <f t="shared" si="1"/>
         <v>0.96132297126332911</v>
       </c>
-      <c r="V28" s="6">
+      <c r="V28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.62690517969325477</v>
+      </c>
+      <c r="X28" s="12">
         <f t="shared" si="2"/>
-        <v>0.62690517969325477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+        <v>162.85714285714286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
@@ -2747,62 +2840,66 @@
       <c r="E29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29">
         <v>234</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29">
         <v>549</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29">
         <v>128466</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29">
         <v>7873</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <v>51370</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="2">
         <v>1.3032699999999999</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29">
         <v>459</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29">
         <v>659</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29">
         <v>240</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29">
         <v>502</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29">
         <v>120480</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29">
         <v>5699</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29">
         <v>56821</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="2">
         <v>1.15991</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="3">
         <f t="shared" si="0"/>
         <v>0.93783569193405258</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="3">
         <f t="shared" si="1"/>
         <v>0.72386637876286042</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88999976980978623</v>
+      </c>
+      <c r="X29" s="12">
         <f t="shared" si="2"/>
-        <v>0.88999976980978623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>77.951441578148703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
@@ -2815,62 +2912,66 @@
       <c r="E30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>665</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>472</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30">
         <v>313880</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30">
         <v>7161</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <v>159743</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="2">
         <v>3.7332299999999998</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30">
         <v>312</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30">
         <v>864</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30">
         <v>410</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30">
         <v>471</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30">
         <v>193110</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30">
         <v>7166</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30">
         <v>101910</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="2">
         <v>3.04237</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="3">
         <f t="shared" si="0"/>
         <v>0.61523512170256145</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="3">
         <f t="shared" si="1"/>
         <v>1.0006982265046782</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.81494309217487271</v>
+      </c>
+      <c r="X30" s="12">
         <f t="shared" si="2"/>
-        <v>0.81494309217487271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>184.8877314814815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
@@ -2883,62 +2984,66 @@
       <c r="E31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31">
         <v>578</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <v>1428</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31">
         <v>825384</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31">
         <v>28690</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>284337</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="2">
         <v>5.7949799999999998</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31">
         <v>1279</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31">
         <v>1973</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31">
         <v>568</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31">
         <v>1393</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31">
         <v>791224</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31">
         <v>28325</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31">
         <v>279467</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="2">
         <v>5.6050199999999997</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="3">
         <f t="shared" si="0"/>
         <v>0.95861320306669384</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="3">
         <f t="shared" si="1"/>
         <v>0.98727779714186126</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96721990412391412</v>
+      </c>
+      <c r="X31" s="12">
         <f t="shared" si="2"/>
-        <v>0.96721990412391412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>144.11403953370501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
@@ -2951,62 +3056,66 @@
       <c r="E32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32">
         <v>1027</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32">
         <v>2670</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32">
         <v>2742090</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32">
         <v>83063</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32">
         <v>693203</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="2">
         <v>15.2281</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32">
         <v>2162</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32">
         <v>3055</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32">
         <v>899</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32">
         <v>2668</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32">
         <v>2398532</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32">
         <v>82809</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32">
         <v>859067</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="2">
         <v>20.153400000000001</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="3">
         <f t="shared" si="0"/>
         <v>0.87470943696231707</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="3">
         <f t="shared" si="1"/>
         <v>0.99694208010786989</v>
       </c>
-      <c r="V32" s="6">
+      <c r="V32" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3234349656227633</v>
+      </c>
+      <c r="X32" s="12">
         <f t="shared" si="2"/>
-        <v>1.3234349656227633</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+        <v>226.90769230769232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>93</v>
       </c>
@@ -3019,62 +3128,66 @@
       <c r="E33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33">
         <v>815</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33">
         <v>2211</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33">
         <v>1801965</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33">
         <v>60749</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33">
         <v>585776</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="2">
         <v>12.171900000000001</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33">
         <v>1903</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33">
         <v>2761</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33">
         <v>813</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33">
         <v>1990</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33">
         <v>1617870</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33">
         <v>41365</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33">
         <v>593235</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="2">
         <v>12.297700000000001</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="3">
         <f t="shared" si="0"/>
         <v>0.89783652845643502</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="3">
         <f t="shared" si="1"/>
         <v>0.68091655829725595</v>
       </c>
-      <c r="V33" s="6">
+      <c r="V33" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0103352804410157</v>
+      </c>
+      <c r="X33" s="12">
         <f t="shared" si="2"/>
-        <v>1.0103352804410157</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+        <v>212.16081130025353</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>126</v>
       </c>
@@ -3087,62 +3200,66 @@
       <c r="E34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34">
         <v>1329</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34">
         <v>2576</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34">
         <v>3423504</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34">
         <v>92862</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34">
         <v>998017</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="2">
         <v>33.160299999999999</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34">
         <v>2174</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34">
         <v>3507</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34">
         <v>1221</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34">
         <v>2469</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34">
         <v>3014649</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34">
         <v>84432</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34">
         <v>1020260</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="2">
         <v>27.532800000000002</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="3">
         <f t="shared" si="0"/>
         <v>0.88057411353981185</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" s="3">
         <f t="shared" si="1"/>
         <v>0.90922013310073013</v>
       </c>
-      <c r="V34" s="6">
+      <c r="V34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83029405644701648</v>
+      </c>
+      <c r="X34" s="12">
         <f t="shared" si="2"/>
-        <v>0.83029405644701648</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+        <v>284.57855717137153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3155,181 +3272,189 @@
       <c r="E35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35">
         <v>2565</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35">
         <v>6426</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35">
         <v>16482690</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35">
         <v>306390</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35">
         <v>3515968</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="2">
         <v>83.119900000000001</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35">
         <v>5263</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35">
         <v>8592</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35">
         <v>2438</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35">
         <v>6189</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35">
         <v>15088782</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35">
         <v>283554</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35">
         <v>3484387</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="2">
         <v>128.78700000000001</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="3">
         <f t="shared" si="0"/>
         <v>0.91543200776086908</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="3">
         <f t="shared" si="1"/>
         <v>0.92546754136884368</v>
       </c>
-      <c r="V35" s="6">
+      <c r="V35" s="3">
+        <f t="shared" si="3"/>
+        <v>1.54941235492343</v>
+      </c>
+      <c r="X35" s="12">
         <f t="shared" si="2"/>
-        <v>1.54941235492343</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
+        <v>409.21415270018622</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="5">
         <v>2606</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="5">
         <v>6415</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="5">
         <v>16717490</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="5">
         <v>544606</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="5">
         <v>5028437</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="8">
         <v>136.488</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="5">
         <v>5383</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="5">
         <v>7866</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="5">
         <v>2506</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="5">
         <v>6158</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="5">
         <v>15431948</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="5">
         <v>360324</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="5">
         <v>5289167</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="8">
         <v>142.19399999999999</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="6">
         <f t="shared" si="0"/>
         <v>0.92310197284400952</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="6">
         <f t="shared" si="1"/>
         <v>0.66162326525965565</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="6">
+        <f t="shared" si="3"/>
+        <v>1.041805873043784</v>
+      </c>
+      <c r="X36" s="12">
         <f t="shared" si="2"/>
-        <v>1.041805873043784</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="T37" s="6">
+        <v>639.2622679888126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="T37" s="3">
         <f>AVERAGE(T3:T36)</f>
         <v>0.82580647701754106</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="3">
         <f>AVERAGE(U3:U36)</f>
         <v>0.86997891226316493</v>
       </c>
-      <c r="V37" s="6">
+      <c r="V37" s="3">
         <f>AVERAGE(V3:V36)</f>
         <v>1.0430669623673017</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="V48" s="5"/>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="V48" s="2"/>
     </row>
     <row r="49" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V49" s="5"/>
+      <c r="V49" s="2"/>
     </row>
     <row r="50" spans="22:22" x14ac:dyDescent="0.3">
-      <c r="V50" s="5"/>
+      <c r="V50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/experimental_results/ordering_NW_finished.xlsx
+++ b/experimental_results/ordering_NW_finished.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F568E0-4F66-4677-90C5-B13F574907F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD627E84-9404-460C-8B00-964D0B007FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9304CC2E-D6E2-4A2B-A955-426B40F1FB42}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9304CC2E-D6E2-4A2B-A955-426B40F1FB42}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>trindade16</t>
   </si>
@@ -98,45 +98,12 @@
     <t>|N| (ntk)</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>&lt;1</t>
   </si>
   <si>
     <t>num_wires</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>fontes18</t>
   </si>
   <si>
@@ -176,27 +143,6 @@
     <t>16/1</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
     <t>ISCAS85</t>
   </si>
   <si>
@@ -260,42 +206,6 @@
     <t>207/107</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1738</t>
-  </si>
-  <si>
-    <t>2748</t>
-  </si>
-  <si>
     <t>EPFL</t>
   </si>
   <si>
@@ -341,33 +251,9 @@
     <t>128/8</t>
   </si>
   <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>3055</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>2761</t>
-  </si>
-  <si>
     <t>bar</t>
   </si>
   <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>3507</t>
-  </si>
-  <si>
-    <t>5263</t>
-  </si>
-  <si>
-    <t>8592</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -380,69 +266,9 @@
     <t>512/130</t>
   </si>
   <si>
-    <t>5383</t>
-  </si>
-  <si>
-    <t>7866</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
     <t>i2c</t>
   </si>
   <si>
-    <t>6963</t>
-  </si>
-  <si>
-    <t>2905</t>
-  </si>
-  <si>
-    <t>4615</t>
-  </si>
-  <si>
-    <t>3679</t>
-  </si>
-  <si>
-    <t>5654</t>
-  </si>
-  <si>
-    <t>4626</t>
-  </si>
-  <si>
-    <t>1217</t>
-  </si>
-  <si>
-    <t>1840</t>
-  </si>
-  <si>
     <t xml:space="preserve">w </t>
   </si>
   <si>
@@ -459,6 +285,12 @@
   </si>
   <si>
     <t>t(diff)</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>24/25</t>
   </si>
 </sst>
 </file>
@@ -507,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -524,21 +356,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,6 +386,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -862,51 +708,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE01C0-87DF-4CA1-B833-0C5585900ECA}">
-  <dimension ref="A1:X50"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="1"/>
-    <col min="6" max="8" width="22.88671875" style="1" customWidth="1"/>
-    <col min="9" max="13" width="11.44140625" style="1"/>
-    <col min="14" max="16" width="22.6640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="11.44140625" style="3"/>
-    <col min="22" max="23" width="11.44140625" style="1"/>
-    <col min="24" max="24" width="11.44140625" style="12"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="16" width="22.7109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="11.42578125" style="3"/>
+    <col min="22" max="23" width="11.42578125" style="1"/>
+    <col min="25" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="N1" s="11" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -920,19 +765,19 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
@@ -944,34 +789,34 @@
         <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>139</v>
+      <c r="T2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,10 +826,10 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>5</v>
       </c>
       <c r="F3">
@@ -1003,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -1027,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" s="3">
         <f>P3/H3</f>
@@ -1037,22 +882,22 @@
         <f>Q3/I3</f>
         <v>0.2</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>6</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1070,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1094,32 +939,32 @@
         <v>11</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" ref="T4:T36" si="0">P4/H4</f>
+        <f t="shared" ref="T4:T37" si="0">P4/H4</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" ref="U4:U36" si="1">Q4/I4</f>
+        <f t="shared" ref="U4:U37" si="1">Q4/I4</f>
         <v>0.5</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="D5" s="10">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1137,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <v>6</v>
@@ -1161,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="0"/>
@@ -1171,22 +1016,22 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
+      <c r="D6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
+        <v>14</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -1204,7 +1049,7 @@
         <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1228,7 +1073,7 @@
         <v>51</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="0"/>
@@ -1238,7 +1083,7 @@
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="7">
         <v>1</v>
       </c>
       <c r="X6" s="1">
@@ -1246,18 +1091,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
+      <c r="D7" s="10">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10">
+        <v>21</v>
       </c>
       <c r="F7">
         <v>14</v>
@@ -1275,7 +1120,7 @@
         <v>110</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>13</v>
@@ -1299,7 +1144,7 @@
         <v>99</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="0"/>
@@ -1309,7 +1154,7 @@
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="7">
         <v>1</v>
       </c>
       <c r="X7" s="1">
@@ -1317,18 +1162,18 @@
         <v>5.2380952380952381</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
+      <c r="D8" s="10">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10">
+        <v>21</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -1346,7 +1191,7 @@
         <v>107</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8">
         <v>14</v>
@@ -1370,7 +1215,7 @@
         <v>154</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="0"/>
@@ -1380,29 +1225,29 @@
         <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="7">
         <v>1</v>
       </c>
-      <c r="X8" s="12">
-        <f t="shared" ref="X7:X36" si="2">J8/E8</f>
+      <c r="X8">
+        <f t="shared" ref="X8:X36" si="2">J8/E8</f>
         <v>5.0952380952380949</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="10">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10">
+        <v>21</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -1420,7 +1265,7 @@
         <v>132</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>17</v>
@@ -1444,7 +1289,7 @@
         <v>112</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="0"/>
@@ -1454,26 +1299,26 @@
         <f t="shared" si="1"/>
         <v>0.86363636363636365</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="7">
         <v>1</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9">
         <f t="shared" si="2"/>
         <v>6.2857142857142856</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10">
+        <v>19</v>
       </c>
       <c r="F10">
         <v>13</v>
@@ -1491,7 +1336,7 @@
         <v>117</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <v>12</v>
@@ -1515,7 +1360,7 @@
         <v>95</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="0"/>
@@ -1525,26 +1370,26 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="7">
         <v>1</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10">
         <f t="shared" si="2"/>
         <v>6.1578947368421053</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
+      <c r="D11" s="10">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10">
+        <v>21</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -1562,7 +1407,7 @@
         <v>93</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>15</v>
@@ -1586,7 +1431,7 @@
         <v>79</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="0"/>
@@ -1596,26 +1441,26 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="7">
         <v>1</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11">
         <f t="shared" si="2"/>
         <v>4.4285714285714288</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
+      <c r="D12" s="10">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10">
+        <v>36</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -1633,7 +1478,7 @@
         <v>181</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -1657,7 +1502,7 @@
         <v>178</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="0"/>
@@ -1667,26 +1512,26 @@
         <f t="shared" si="1"/>
         <v>0.9642857142857143</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="7">
         <v>1</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12">
         <f t="shared" si="2"/>
         <v>5.0277777777777777</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="10">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10">
+        <v>59</v>
       </c>
       <c r="F13">
         <v>23</v>
@@ -1704,7 +1549,7 @@
         <v>418</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>38</v>
@@ -1728,7 +1573,7 @@
         <v>413</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="0"/>
@@ -1738,26 +1583,26 @@
         <f t="shared" si="1"/>
         <v>0.85483870967741937</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="7">
         <v>1</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13">
         <f t="shared" si="2"/>
         <v>7.0847457627118642</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="10">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10">
+        <v>56</v>
       </c>
       <c r="F14">
         <v>22</v>
@@ -1775,7 +1620,7 @@
         <v>475</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14">
         <v>38</v>
@@ -1799,7 +1644,7 @@
         <v>438</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="0"/>
@@ -1809,26 +1654,26 @@
         <f t="shared" si="1"/>
         <v>0.79411764705882348</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="7">
         <v>1</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14">
         <f t="shared" si="2"/>
         <v>8.4821428571428577</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="10">
+        <v>103</v>
+      </c>
+      <c r="E15" s="10">
+        <v>133</v>
       </c>
       <c r="F15">
         <v>48</v>
@@ -1846,7 +1691,7 @@
         <v>1867</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15">
         <v>103</v>
@@ -1870,7 +1715,7 @@
         <v>2212</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="0"/>
@@ -1880,29 +1725,29 @@
         <f t="shared" si="1"/>
         <v>0.43902439024390244</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="7">
         <v>1</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15">
         <f t="shared" si="2"/>
         <v>14.037593984962406</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
+        <v>10</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -1920,7 +1765,7 @@
         <v>62</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16">
         <v>7</v>
@@ -1944,7 +1789,7 @@
         <v>44</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="0"/>
@@ -1954,26 +1799,26 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="7">
         <v>1</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
+      </c>
+      <c r="D17" s="10">
+        <v>357</v>
+      </c>
+      <c r="E17" s="10">
+        <v>537</v>
       </c>
       <c r="F17">
         <v>187</v>
@@ -1991,7 +1836,7 @@
         <v>34911</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17">
         <v>357</v>
@@ -2015,7 +1860,7 @@
         <v>36732</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="0"/>
@@ -2025,26 +1870,26 @@
         <f t="shared" si="1"/>
         <v>0.95085420079569394</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="7">
         <v>1</v>
       </c>
-      <c r="X17" s="12">
+      <c r="X17">
         <f t="shared" si="2"/>
         <v>65.011173184357546</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="D18" s="10">
+        <v>698</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1089</v>
       </c>
       <c r="F18">
         <v>359</v>
@@ -2100,23 +1945,23 @@
         <f>S18/K18</f>
         <v>1.0013010913336433</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18">
         <f t="shared" si="2"/>
         <v>90.898071625344357</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10">
         <v>552</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
+      <c r="E19" s="10">
+        <v>845</v>
       </c>
       <c r="F19">
         <v>292</v>
@@ -2169,26 +2014,26 @@
         <v>1.0313210406668352</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" ref="V19:V36" si="3">S19/K19</f>
+        <f t="shared" ref="V19:V37" si="3">S19/K19</f>
         <v>1.3911651045113904</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19">
         <f t="shared" si="2"/>
         <v>77.156213017751483</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="10">
+        <v>834</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1329</v>
       </c>
       <c r="F20">
         <v>431</v>
@@ -2244,23 +2089,23 @@
         <f t="shared" si="3"/>
         <v>1.4899963297114129</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20">
         <f t="shared" si="2"/>
         <v>78.044394281414597</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="D21" s="10">
+        <v>686</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1092</v>
       </c>
       <c r="F21">
         <v>365</v>
@@ -2316,23 +2161,23 @@
         <f t="shared" si="3"/>
         <v>1.0119937268440551</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21">
         <f t="shared" si="2"/>
         <v>92.568681318681314</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>134</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1217</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1840</v>
       </c>
       <c r="F22">
         <v>664</v>
@@ -2388,23 +2233,23 @@
         <f t="shared" si="3"/>
         <v>0.89304929555925672</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22">
         <f t="shared" si="2"/>
         <v>167.67282608695652</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1738</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2748</v>
       </c>
       <c r="F23">
         <v>840</v>
@@ -2460,23 +2305,23 @@
         <f t="shared" si="3"/>
         <v>0.9672508331994446</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23">
         <f t="shared" si="2"/>
         <v>157.61717612809315</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>53</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2905</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4615</v>
       </c>
       <c r="F24">
         <v>1616</v>
@@ -2532,23 +2377,23 @@
         <f t="shared" si="3"/>
         <v>1.7530192939185174</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24">
         <f t="shared" si="2"/>
         <v>336.16706392199347</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>127</v>
+        <v>54</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4626</v>
+      </c>
+      <c r="E25" s="10">
+        <v>6963</v>
       </c>
       <c r="F25">
         <v>1361</v>
@@ -2604,23 +2449,23 @@
         <f t="shared" si="3"/>
         <v>1.0456271457860704</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25">
         <f t="shared" si="2"/>
         <v>90.446502944133272</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3679</v>
+      </c>
+      <c r="E26" s="10">
+        <v>5654</v>
       </c>
       <c r="F26">
         <v>1710</v>
@@ -2676,26 +2521,26 @@
         <f t="shared" si="3"/>
         <v>0.85652342334462106</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X26">
         <f t="shared" si="2"/>
         <v>408.98231340643792</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>117</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="10">
+        <v>306</v>
+      </c>
+      <c r="E27" s="10">
+        <v>498</v>
       </c>
       <c r="F27">
         <v>185</v>
@@ -2713,7 +2558,7 @@
         <v>25240</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L27">
         <v>306</v>
@@ -2737,7 +2582,7 @@
         <v>23703</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="0"/>
@@ -2747,26 +2592,26 @@
         <f t="shared" si="1"/>
         <v>0.92825278810408918</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="7">
         <v>1</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27">
         <f t="shared" si="2"/>
         <v>50.682730923694777</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>119</v>
+        <v>65</v>
+      </c>
+      <c r="D28" s="10">
+        <v>437</v>
+      </c>
+      <c r="E28" s="10">
+        <v>693</v>
       </c>
       <c r="F28">
         <v>228</v>
@@ -2822,23 +2667,23 @@
         <f t="shared" si="3"/>
         <v>0.62690517969325477</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28">
         <f t="shared" si="2"/>
         <v>162.85714285714286</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
+      </c>
+      <c r="D29" s="10">
+        <v>459</v>
+      </c>
+      <c r="E29" s="10">
+        <v>659</v>
       </c>
       <c r="F29">
         <v>234</v>
@@ -2894,23 +2739,23 @@
         <f t="shared" si="3"/>
         <v>0.88999976980978623</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29">
         <f t="shared" si="2"/>
         <v>77.951441578148703</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
+      </c>
+      <c r="D30" s="10">
+        <v>312</v>
+      </c>
+      <c r="E30" s="10">
+        <v>864</v>
       </c>
       <c r="F30">
         <v>665</v>
@@ -2966,23 +2811,23 @@
         <f t="shared" si="3"/>
         <v>0.81494309217487271</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30">
         <f t="shared" si="2"/>
         <v>184.8877314814815</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1279</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1973</v>
       </c>
       <c r="F31">
         <v>578</v>
@@ -3038,23 +2883,23 @@
         <f t="shared" si="3"/>
         <v>0.96721990412391412</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31">
         <f t="shared" si="2"/>
         <v>144.11403953370501</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2162</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3055</v>
       </c>
       <c r="F32">
         <v>1027</v>
@@ -3110,23 +2955,23 @@
         <f t="shared" si="3"/>
         <v>1.3234349656227633</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32">
         <f t="shared" si="2"/>
         <v>226.90769230769232</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1903</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2761</v>
       </c>
       <c r="F33">
         <v>815</v>
@@ -3182,23 +3027,23 @@
         <f t="shared" si="3"/>
         <v>1.0103352804410157</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33">
         <f t="shared" si="2"/>
         <v>212.16081130025353</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2174</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3507</v>
       </c>
       <c r="F34">
         <v>1329</v>
@@ -3254,23 +3099,23 @@
         <f t="shared" si="3"/>
         <v>0.83029405644701648</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34">
         <f t="shared" si="2"/>
         <v>284.57855717137153</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
+      </c>
+      <c r="D35" s="10">
+        <v>5263</v>
+      </c>
+      <c r="E35" s="10">
+        <v>8592</v>
       </c>
       <c r="F35">
         <v>2565</v>
@@ -3326,135 +3171,593 @@
         <f t="shared" si="3"/>
         <v>1.54941235492343</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35">
         <f t="shared" si="2"/>
         <v>409.21415270018622</v>
       </c>
     </row>
-    <row r="36" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="5">
+    <row r="36" spans="2:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="13">
+        <v>5383</v>
+      </c>
+      <c r="E36" s="13">
+        <v>7866</v>
+      </c>
+      <c r="F36" s="14">
         <v>2606</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="14">
         <v>6415</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="14">
         <v>16717490</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="14">
         <v>544606</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="14">
         <v>5028437</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="15">
         <v>136.488</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="14">
         <v>5383</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="14">
         <v>7866</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="14">
         <v>2506</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="14">
         <v>6158</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="14">
         <v>15431948</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="14">
         <v>360324</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="14">
         <v>5289167</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="15">
         <v>142.19399999999999</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="16">
         <f t="shared" si="0"/>
         <v>0.92310197284400952</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="16">
         <f t="shared" si="1"/>
         <v>0.66162326525965565</v>
       </c>
-      <c r="V36" s="6">
+      <c r="V36" s="16">
         <f t="shared" si="3"/>
         <v>1.041805873043784</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36">
         <f t="shared" si="2"/>
         <v>639.2622679888126</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="T37" s="3">
-        <f>AVERAGE(T3:T36)</f>
-        <v>0.82580647701754106</v>
-      </c>
-      <c r="U37" s="3">
-        <f>AVERAGE(U3:U36)</f>
-        <v>0.86997891226316493</v>
-      </c>
-      <c r="V37" s="3">
-        <f>AVERAGE(V3:V36)</f>
-        <v>1.0430669623673017</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="11">
+        <v>8897</v>
+      </c>
+      <c r="E37" s="11">
+        <v>14314</v>
+      </c>
+      <c r="F37" s="11">
+        <v>4206</v>
+      </c>
+      <c r="G37" s="11">
+        <v>10229</v>
+      </c>
+      <c r="H37" s="11">
+        <v>43023174</v>
+      </c>
+      <c r="I37" s="11">
+        <v>506767</v>
+      </c>
+      <c r="J37" s="11">
+        <v>7341605</v>
+      </c>
+      <c r="K37" s="11">
+        <v>272.73099999999999</v>
+      </c>
+      <c r="L37" s="11">
+        <v>8897</v>
+      </c>
+      <c r="M37" s="11">
+        <v>14314</v>
+      </c>
+      <c r="N37" s="11">
+        <v>4183</v>
+      </c>
+      <c r="O37" s="11">
+        <v>9776</v>
+      </c>
+      <c r="P37" s="11">
+        <v>40893008</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>507042</v>
+      </c>
+      <c r="R37" s="11">
+        <v>7139674</v>
+      </c>
+      <c r="S37" s="11">
+        <v>182.27600000000001</v>
+      </c>
+      <c r="T37" s="16">
+        <f t="shared" si="0"/>
+        <v>0.95048793936030851</v>
+      </c>
+      <c r="U37" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0005426556977861</v>
+      </c>
+      <c r="V37" s="16">
+        <f t="shared" si="3"/>
+        <v>0.66833619940527489</v>
+      </c>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38" s="17">
+        <f>AVERAGE(T3:T37)</f>
+        <v>0.82936880451304873</v>
+      </c>
+      <c r="U38" s="17">
+        <f t="shared" ref="U38:V38" si="4">AVERAGE(U3:U37)</f>
+        <v>0.87370930493272547</v>
+      </c>
+      <c r="V38" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0323603691398151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
       <c r="V50" s="2"/>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
